--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3044.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3044.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3044.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3044.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>15</v>
+        <v>0.5305979251861572</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>3.331262111663818</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>5.809379577636719</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>1.478864669799805</v>
       </c>
       <c r="E1">
-        <v>15</v>
+        <v>0.8644530773162842</v>
       </c>
     </row>
   </sheetData>
